--- a/Mods with IDS.xlsx
+++ b/Mods with IDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d435bc6da306a7af/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{1D03DCE6-C9FC-43BF-83AA-72BCDE3125D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E668ACBA-336A-40AD-9C15-43673604E031}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{1D03DCE6-C9FC-43BF-83AA-72BCDE3125D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{96068A36-4D2B-433F-8BEC-DC31E12CB0F5}"/>
   <bookViews>
-    <workbookView xWindow="31275" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{88F3F52F-82F2-43FE-9091-0A94CB124A51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88F3F52F-82F2-43FE-9091-0A94CB124A51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Mod IDs</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Editable Server UI</t>
+  </si>
+  <si>
+    <t>MOD copy List</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BCACF5-C17D-44F3-A7A7-95C55BEBB643}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,9 +468,10 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="155.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +481,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>731604991</v>
       </c>
@@ -489,8 +496,12 @@
         <f>"https://steamcommunity.com/sharedfiles/filedetails/?id="&amp;A2</f>
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=731604991</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>A2&amp;","&amp;A3&amp;","&amp;A4&amp;","&amp;A5&amp;","&amp;A6&amp;","&amp;A7&amp;","&amp;A8&amp;","&amp;A9&amp;","&amp;A10&amp;","&amp;A11&amp;","&amp;A12&amp;","&amp;A13&amp;","&amp;A14&amp;","&amp;A15&amp;","&amp;A16</f>
+        <v>731604991,895711211,839162288,899987403,764755314,889745138,1404697612,749466101,1814953878,1428596566,1281094173,842913750,541612317,531205766,924619115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>895711211</v>
       </c>
@@ -502,7 +513,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=895711211</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>839162288</v>
       </c>
@@ -514,7 +525,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=839162288</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>899987403</v>
       </c>
@@ -526,7 +537,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=899987403</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>764755314</v>
       </c>
@@ -538,7 +549,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=764755314</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>889745138</v>
       </c>
@@ -550,7 +561,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=889745138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1404697612</v>
       </c>
@@ -562,7 +573,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=1404697612</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>749466101</v>
       </c>
@@ -574,7 +585,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=749466101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1814953878</v>
       </c>
@@ -586,7 +597,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=1814953878</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1428596566</v>
       </c>
@@ -598,7 +609,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=1428596566</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1281094173</v>
       </c>
@@ -610,7 +621,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=1281094173</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>842913750</v>
       </c>
@@ -622,7 +633,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=842913750</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>541612317</v>
       </c>
@@ -634,7 +645,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=541612317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>531205766</v>
       </c>
@@ -646,7 +657,7 @@
         <v>https://steamcommunity.com/sharedfiles/filedetails/?id=531205766</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>924619115</v>
       </c>
